--- a/temp/pages/StructureDefinition-cbs-patient.xlsx
+++ b/temp/pages/StructureDefinition-cbs-patient.xlsx
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>Case Based Surveillance Birth Sex Extension</t>
+    <t>Case Based Surveillance Sex Assigned at Birth Extension</t>
   </si>
   <si>
     <t>A code classifying the person's sex assigned at birth.</t>
